--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_026.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_026.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="126">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,6 +32,9 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
     <t>Allegati</t>
   </si>
   <si>
@@ -47,9 +50,15 @@
     <t>Atto di riconoscimento materno</t>
   </si>
   <si>
+    <t>{evento.trascrizioneNascita.tipoRiconoscimento,in,(1,3)}</t>
+  </si>
+  <si>
     <t>Atto di riconoscimento paterno</t>
   </si>
   <si>
+    <t>{evento.trascrizioneNascita.tipoRiconoscimento,in,(2,3)}</t>
+  </si>
+  <si>
     <t>Richiesta di trascrizione</t>
   </si>
   <si>
@@ -74,6 +83,9 @@
     <t>numeroatto</t>
   </si>
   <si>
+    <t>obbligatoria</t>
+  </si>
+  <si>
     <t>Data formazione</t>
   </si>
   <si>
@@ -128,6 +140,9 @@
     <t>cognome</t>
   </si>
   <si>
+    <t>{evento.trascrizioneNascita.tipoRiconoscimento,=,2}</t>
+  </si>
+  <si>
     <t>Nome</t>
   </si>
   <si>
@@ -260,6 +275,9 @@
     <t>evento.padre</t>
   </si>
   <si>
+    <t>{evento.trascrizioneNascita.tipoRiconoscimento,=,1}</t>
+  </si>
+  <si>
     <t>Figlio</t>
   </si>
   <si>
@@ -348,6 +366,9 @@
   </si>
   <si>
     <t>evento.riconoscimento.atto</t>
+  </si>
+  <si>
+    <t>{evento.trascrizioneNascita.tipoRiconoscimento,in,(1,2)}</t>
   </si>
   <si>
     <t>Atto Nascita Intestatario</t>
@@ -427,7 +448,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G130"/>
+  <dimension ref="A1:H130"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -439,6 +460,7 @@
     <col min="4" max="4" width="31.90234375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="25.734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="51.46875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -460,105 +482,123 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -580,2465 +620,2837 @@
       <c r="F7" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G7" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="E17" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E56" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B56" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="F56" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E79" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B79" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="F79" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B84" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D84" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C84" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="E84" s="2" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B102" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B102" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="C102" s="2" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D102" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E102" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="E102" s="2" t="s">
-        <v>103</v>
-      </c>
       <c r="F102" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B115" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B115" s="2" t="s">
-        <v>104</v>
-      </c>
       <c r="C115" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E115" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="E115" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="F115" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G125" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G127" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B128" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B128" s="2" t="s">
-        <v>106</v>
-      </c>
       <c r="C128" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E128" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="E128" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="F128" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G129" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G130" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_026.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_026.xlsx
@@ -32,7 +32,7 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
-    <t>Condizioni obbligatorieta'</t>
+    <t>Si puo' ignorare la sezione per</t>
   </si>
   <si>
     <t>Allegati</t>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_026.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_026.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="127">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,43 +32,46 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
+    <t>Allegati</t>
+  </si>
+  <si>
+    <t>Copia integrale dell'atto di nascita del dichiarante</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Atto di riconoscimento materno</t>
+  </si>
+  <si>
+    <t>{evento.trascrizioneNascita.tipoRiconoscimento,in,(1,3)}</t>
+  </si>
+  <si>
+    <t>Atto di riconoscimento paterno</t>
+  </si>
+  <si>
+    <t>{evento.trascrizioneNascita.tipoRiconoscimento,in,(2,3)}</t>
+  </si>
+  <si>
+    <t>Richiesta di trascrizione</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>114-quinquies.2</t>
+  </si>
+  <si>
     <t>Si puo' ignorare la sezione per</t>
-  </si>
-  <si>
-    <t>Allegati</t>
-  </si>
-  <si>
-    <t>Copia integrale dell'atto di nascita del dichiarante</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Atto di riconoscimento materno</t>
-  </si>
-  <si>
-    <t>{evento.trascrizioneNascita.tipoRiconoscimento,in,(1,3)}</t>
-  </si>
-  <si>
-    <t>Atto di riconoscimento paterno</t>
-  </si>
-  <si>
-    <t>{evento.trascrizioneNascita.tipoRiconoscimento,in,(2,3)}</t>
-  </si>
-  <si>
-    <t>Richiesta di trascrizione</t>
-  </si>
-  <si>
-    <t>SI</t>
-  </si>
-  <si>
-    <t>Formula</t>
-  </si>
-  <si>
-    <t>114-quinquies.2</t>
   </si>
   <si>
     <t>Formazione atto</t>
@@ -621,1703 +624,1703 @@
         <v>5</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E58" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B58" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2328,19 +2331,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2351,19 +2354,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2374,19 +2377,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2397,19 +2400,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2420,19 +2423,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2443,19 +2446,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2466,19 +2469,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2489,19 +2492,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2512,19 +2515,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2535,19 +2538,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>18</v>
@@ -2558,19 +2561,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>18</v>
@@ -2581,19 +2584,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2604,19 +2607,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2627,19 +2630,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2650,19 +2653,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2673,19 +2676,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2696,19 +2699,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2719,19 +2722,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2742,19 +2745,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2765,19 +2768,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2788,19 +2791,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2811,19 +2814,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>18</v>
@@ -2834,19 +2837,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E104" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>113</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>18</v>
@@ -2857,600 +2860,600 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_026.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_026.xlsx
@@ -50,13 +50,13 @@
     <t>Atto di riconoscimento materno</t>
   </si>
   <si>
-    <t>{evento.trascrizioneNascita.tipoRiconoscimento,in,(1,3)}</t>
+    <t>evento.trascrizioneNascita.tipoRiconoscimento,in,(1,3)</t>
   </si>
   <si>
     <t>Atto di riconoscimento paterno</t>
   </si>
   <si>
-    <t>{evento.trascrizioneNascita.tipoRiconoscimento,in,(2,3)}</t>
+    <t>evento.trascrizioneNascita.tipoRiconoscimento,in,(2,3)</t>
   </si>
   <si>
     <t>Richiesta di trascrizione</t>
@@ -143,7 +143,7 @@
     <t>cognome</t>
   </si>
   <si>
-    <t>{evento.trascrizioneNascita.tipoRiconoscimento,=,2}</t>
+    <t>evento.trascrizioneNascita.tipoRiconoscimento,=,2</t>
   </si>
   <si>
     <t>Nome</t>
@@ -278,7 +278,7 @@
     <t>evento.padre</t>
   </si>
   <si>
-    <t>{evento.trascrizioneNascita.tipoRiconoscimento,=,1}</t>
+    <t>evento.trascrizioneNascita.tipoRiconoscimento,=,1</t>
   </si>
   <si>
     <t>Figlio</t>
@@ -371,7 +371,7 @@
     <t>evento.riconoscimento.atto</t>
   </si>
   <si>
-    <t>{evento.trascrizioneNascita.tipoRiconoscimento,in,(1,2)}</t>
+    <t>evento.trascrizioneNascita.tipoRiconoscimento,in,(1,2)</t>
   </si>
   <si>
     <t>Atto Nascita Intestatario</t>
@@ -463,7 +463,7 @@
     <col min="4" max="4" width="31.90234375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="25.734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="51.46875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="50.08203125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_026.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_026.xlsx
@@ -62,13 +62,13 @@
     <t>Richiesta di trascrizione</t>
   </si>
   <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>114-quinquies.2</t>
+  </si>
+  <si>
     <t>SI</t>
-  </si>
-  <si>
-    <t>Formula</t>
-  </si>
-  <si>
-    <t>114-quinquies.2</t>
   </si>
   <si>
     <t>Si puo' ignorare la sezione per</t>
@@ -566,7 +566,7 @@
         <v>15</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>10</v>
@@ -583,13 +583,13 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="C6" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>10</v>
@@ -635,7 +635,7 @@
         <v>21</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>22</v>
@@ -658,7 +658,7 @@
         <v>25</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>22</v>
@@ -681,7 +681,7 @@
         <v>27</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>22</v>
@@ -704,7 +704,7 @@
         <v>29</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>22</v>
@@ -727,7 +727,7 @@
         <v>32</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>33</v>
@@ -759,7 +759,7 @@
         <v>36</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>24</v>
@@ -773,7 +773,7 @@
         <v>37</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>22</v>
@@ -805,7 +805,7 @@
         <v>42</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>43</v>
@@ -819,7 +819,7 @@
         <v>44</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>41</v>
@@ -842,7 +842,7 @@
         <v>46</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>41</v>
@@ -865,7 +865,7 @@
         <v>48</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>41</v>
@@ -888,7 +888,7 @@
         <v>50</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>41</v>
@@ -911,7 +911,7 @@
         <v>52</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>41</v>
@@ -966,7 +966,7 @@
         <v>57</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>43</v>
@@ -1012,7 +1012,7 @@
         <v>61</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>43</v>
@@ -1026,7 +1026,7 @@
         <v>62</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>41</v>
@@ -1049,7 +1049,7 @@
         <v>64</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>41</v>
@@ -1072,7 +1072,7 @@
         <v>66</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>41</v>
@@ -1095,7 +1095,7 @@
         <v>68</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>41</v>
@@ -1150,7 +1150,7 @@
         <v>73</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>43</v>
@@ -1196,7 +1196,7 @@
         <v>77</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>43</v>
@@ -1219,7 +1219,7 @@
         <v>79</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>43</v>
@@ -1233,7 +1233,7 @@
         <v>80</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>41</v>
@@ -1256,7 +1256,7 @@
         <v>82</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>41</v>
@@ -1279,7 +1279,7 @@
         <v>84</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>41</v>
@@ -1311,7 +1311,7 @@
         <v>42</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>88</v>
@@ -1325,7 +1325,7 @@
         <v>44</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>87</v>
@@ -1348,7 +1348,7 @@
         <v>46</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>87</v>
@@ -1371,7 +1371,7 @@
         <v>48</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>87</v>
@@ -1394,7 +1394,7 @@
         <v>50</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>87</v>
@@ -1417,7 +1417,7 @@
         <v>52</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>87</v>
@@ -1472,7 +1472,7 @@
         <v>57</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>88</v>
@@ -1518,7 +1518,7 @@
         <v>61</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>88</v>
@@ -1532,7 +1532,7 @@
         <v>62</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>87</v>
@@ -1555,7 +1555,7 @@
         <v>64</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>87</v>
@@ -1578,7 +1578,7 @@
         <v>66</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>87</v>
@@ -1601,7 +1601,7 @@
         <v>68</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>87</v>
@@ -1656,7 +1656,7 @@
         <v>73</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G52" s="2" t="s">
         <v>88</v>
@@ -1702,7 +1702,7 @@
         <v>77</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G54" s="2" t="s">
         <v>88</v>
@@ -1725,7 +1725,7 @@
         <v>79</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>88</v>
@@ -1739,7 +1739,7 @@
         <v>80</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>87</v>
@@ -1762,7 +1762,7 @@
         <v>82</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>87</v>
@@ -1785,7 +1785,7 @@
         <v>84</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>87</v>
@@ -1817,7 +1817,7 @@
         <v>42</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>24</v>
@@ -1831,7 +1831,7 @@
         <v>44</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>90</v>
@@ -1854,7 +1854,7 @@
         <v>46</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>90</v>
@@ -1877,7 +1877,7 @@
         <v>48</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>90</v>
@@ -1900,7 +1900,7 @@
         <v>50</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>90</v>
@@ -1923,7 +1923,7 @@
         <v>52</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>90</v>
@@ -1978,7 +1978,7 @@
         <v>57</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>24</v>
@@ -2024,7 +2024,7 @@
         <v>61</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>24</v>
@@ -2038,7 +2038,7 @@
         <v>62</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>90</v>
@@ -2061,7 +2061,7 @@
         <v>64</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>90</v>
@@ -2084,7 +2084,7 @@
         <v>66</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>90</v>
@@ -2107,7 +2107,7 @@
         <v>68</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>90</v>
@@ -2162,7 +2162,7 @@
         <v>73</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>24</v>
@@ -2208,7 +2208,7 @@
         <v>77</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>24</v>
@@ -2231,7 +2231,7 @@
         <v>79</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>24</v>
@@ -2245,7 +2245,7 @@
         <v>80</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>90</v>
@@ -2268,7 +2268,7 @@
         <v>82</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>90</v>
@@ -2291,7 +2291,7 @@
         <v>84</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>90</v>
@@ -2337,7 +2337,7 @@
         <v>95</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>93</v>
@@ -2360,7 +2360,7 @@
         <v>97</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>93</v>
@@ -2383,7 +2383,7 @@
         <v>99</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>93</v>
@@ -2406,7 +2406,7 @@
         <v>101</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>93</v>
@@ -2429,7 +2429,7 @@
         <v>103</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>93</v>
@@ -2452,7 +2452,7 @@
         <v>105</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>93</v>
@@ -2475,7 +2475,7 @@
         <v>106</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>93</v>
@@ -2498,7 +2498,7 @@
         <v>108</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>93</v>
@@ -2521,7 +2521,7 @@
         <v>109</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>93</v>
@@ -2553,7 +2553,7 @@
         <v>112</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G91" s="2" t="s">
         <v>12</v>
@@ -2576,7 +2576,7 @@
         <v>114</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G92" s="2" t="s">
         <v>12</v>
@@ -2613,7 +2613,7 @@
         <v>95</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>116</v>
@@ -2636,7 +2636,7 @@
         <v>97</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>116</v>
@@ -2659,7 +2659,7 @@
         <v>99</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>116</v>
@@ -2682,7 +2682,7 @@
         <v>101</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>116</v>
@@ -2705,7 +2705,7 @@
         <v>103</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>116</v>
@@ -2728,7 +2728,7 @@
         <v>105</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>116</v>
@@ -2751,7 +2751,7 @@
         <v>106</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D100" s="2" t="s">
         <v>116</v>
@@ -2774,7 +2774,7 @@
         <v>108</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>116</v>
@@ -2797,7 +2797,7 @@
         <v>109</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D102" s="2" t="s">
         <v>116</v>
@@ -2829,7 +2829,7 @@
         <v>112</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G103" s="2" t="s">
         <v>14</v>
@@ -2852,7 +2852,7 @@
         <v>114</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G104" s="2" t="s">
         <v>14</v>
@@ -2889,7 +2889,7 @@
         <v>95</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D106" s="2" t="s">
         <v>118</v>
@@ -2912,7 +2912,7 @@
         <v>97</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D107" s="2" t="s">
         <v>118</v>
@@ -2935,7 +2935,7 @@
         <v>99</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D108" s="2" t="s">
         <v>118</v>
@@ -2958,7 +2958,7 @@
         <v>101</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D109" s="2" t="s">
         <v>118</v>
@@ -2981,7 +2981,7 @@
         <v>103</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D110" s="2" t="s">
         <v>118</v>
@@ -3004,7 +3004,7 @@
         <v>105</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D111" s="2" t="s">
         <v>118</v>
@@ -3027,7 +3027,7 @@
         <v>106</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D112" s="2" t="s">
         <v>118</v>
@@ -3050,7 +3050,7 @@
         <v>108</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D113" s="2" t="s">
         <v>118</v>
@@ -3073,7 +3073,7 @@
         <v>109</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D114" s="2" t="s">
         <v>118</v>
@@ -3105,7 +3105,7 @@
         <v>112</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G115" s="2" t="s">
         <v>119</v>
@@ -3128,7 +3128,7 @@
         <v>114</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G116" s="2" t="s">
         <v>119</v>
@@ -3165,7 +3165,7 @@
         <v>95</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D118" s="2" t="s">
         <v>121</v>
@@ -3188,7 +3188,7 @@
         <v>97</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D119" s="2" t="s">
         <v>121</v>
@@ -3211,7 +3211,7 @@
         <v>99</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D120" s="2" t="s">
         <v>121</v>
@@ -3234,7 +3234,7 @@
         <v>101</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D121" s="2" t="s">
         <v>121</v>
@@ -3257,7 +3257,7 @@
         <v>103</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D122" s="2" t="s">
         <v>121</v>
@@ -3280,7 +3280,7 @@
         <v>105</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D123" s="2" t="s">
         <v>121</v>
@@ -3303,7 +3303,7 @@
         <v>106</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D124" s="2" t="s">
         <v>121</v>
@@ -3326,7 +3326,7 @@
         <v>108</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D125" s="2" t="s">
         <v>121</v>
@@ -3349,7 +3349,7 @@
         <v>109</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D126" s="2" t="s">
         <v>121</v>
@@ -3418,7 +3418,7 @@
         <v>123</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D129" s="2" t="s">
         <v>33</v>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_026.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_026.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="129">
   <si>
     <t>Sezione</t>
   </si>
@@ -200,6 +200,12 @@
     <t>nomeComuneNascita</t>
   </si>
   <si>
+    <t>Località estera</t>
+  </si>
+  <si>
+    <t>localitaEsteraNascita</t>
+  </si>
+  <si>
     <t>Nazionalita</t>
   </si>
   <si>
@@ -341,22 +347,22 @@
     <t>Data atto</t>
   </si>
   <si>
+    <t>Parte</t>
+  </si>
+  <si>
+    <t>parte</t>
+  </si>
+  <si>
+    <t>Serie</t>
+  </si>
+  <si>
+    <t>serie</t>
+  </si>
+  <si>
     <t>Tipo registro</t>
   </si>
   <si>
     <t>tipologia</t>
-  </si>
-  <si>
-    <t>Parte</t>
-  </si>
-  <si>
-    <t>parte</t>
-  </si>
-  <si>
-    <t>Serie</t>
-  </si>
-  <si>
-    <t>serie</t>
   </si>
   <si>
     <t>Riconoscimento madre</t>
@@ -451,7 +457,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H130"/>
+  <dimension ref="A1:H133"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1026,7 +1032,7 @@
         <v>62</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>41</v>
@@ -1035,7 +1041,7 @@
         <v>63</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>43</v>
@@ -1118,7 +1124,7 @@
         <v>70</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>41</v>
@@ -1150,7 +1156,7 @@
         <v>73</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>43</v>
@@ -1173,7 +1179,7 @@
         <v>75</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>43</v>
@@ -1196,7 +1202,7 @@
         <v>77</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>43</v>
@@ -1233,7 +1239,7 @@
         <v>80</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>41</v>
@@ -1242,7 +1248,7 @@
         <v>81</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>43</v>
@@ -1296,574 +1302,574 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="C37" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D37" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="E37" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="F37" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>88</v>
+        <v>43</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D59" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B59" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D59" s="2" t="s">
+      <c r="E59" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G59" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G59" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D60" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B60" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D60" s="2" t="s">
+      <c r="E60" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G60" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G60" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>24</v>
@@ -1871,19 +1877,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1894,19 +1900,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1917,19 +1923,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1940,19 +1946,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -1963,22 +1969,22 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>24</v>
@@ -1986,19 +1992,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2009,19 +2015,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>17</v>
@@ -2032,19 +2038,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2055,22 +2061,22 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G70" s="2" t="s">
         <v>24</v>
@@ -2078,22 +2084,22 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>24</v>
@@ -2101,19 +2107,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2124,19 +2130,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2147,22 +2153,22 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>24</v>
@@ -2170,19 +2176,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2193,22 +2199,22 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>24</v>
@@ -2216,19 +2222,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>17</v>
@@ -2239,19 +2245,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2262,22 +2268,22 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G79" s="2" t="s">
         <v>24</v>
@@ -2285,22 +2291,22 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G80" s="2" t="s">
         <v>24</v>
@@ -2311,22 +2317,22 @@
         <v>91</v>
       </c>
       <c r="B81" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D81" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C81" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="E81" s="2" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="82">
@@ -2334,22 +2340,22 @@
         <v>91</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="83">
@@ -2357,39 +2363,39 @@
         <v>91</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2400,19 +2406,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2423,19 +2429,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2446,19 +2452,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>23</v>
+        <v>102</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2469,19 +2475,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2492,19 +2498,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>26</v>
+        <v>106</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2515,19 +2521,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>110</v>
+        <v>23</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2538,22 +2544,22 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
         <v>12</v>
@@ -2561,22 +2567,22 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>114</v>
+        <v>26</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
         <v>12</v>
@@ -2584,88 +2590,88 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="B94" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D94" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C94" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>116</v>
-      </c>
       <c r="E94" s="2" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B95" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B95" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="C95" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D95" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E95" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="E95" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2676,19 +2682,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2699,19 +2705,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2722,19 +2728,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>23</v>
+        <v>102</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2745,19 +2751,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2768,19 +2774,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>26</v>
+        <v>106</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2791,19 +2797,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>110</v>
+        <v>23</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2814,22 +2820,22 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
         <v>14</v>
@@ -2837,22 +2843,22 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>114</v>
+        <v>26</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
         <v>14</v>
@@ -2863,7 +2869,7 @@
         <v>117</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
@@ -2872,13 +2878,13 @@
         <v>118</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>119</v>
+        <v>14</v>
       </c>
     </row>
     <row r="106">
@@ -2886,22 +2892,22 @@
         <v>117</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
         <v>118</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>119</v>
+        <v>14</v>
       </c>
     </row>
     <row r="107">
@@ -2909,7 +2915,7 @@
         <v>117</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>18</v>
@@ -2918,306 +2924,306 @@
         <v>118</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>119</v>
+        <v>14</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>23</v>
+        <v>102</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>26</v>
+        <v>106</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>110</v>
+        <v>23</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>114</v>
+        <v>26</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D117" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B117" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D117" s="2" t="s">
+      <c r="E117" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G117" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="E117" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F117" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G117" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D118" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B118" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D118" s="2" t="s">
+      <c r="E118" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G118" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="E118" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="F118" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G118" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D119" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B119" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D119" s="2" t="s">
+      <c r="E119" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G119" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="E119" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="F119" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G119" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3228,19 +3234,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3251,19 +3257,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3274,19 +3280,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>23</v>
+        <v>102</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3297,19 +3303,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3320,19 +3326,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>26</v>
+        <v>106</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3343,19 +3349,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>110</v>
+        <v>23</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3366,19 +3372,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3389,19 +3395,19 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>114</v>
+        <v>26</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
@@ -3415,16 +3421,16 @@
         <v>122</v>
       </c>
       <c r="B129" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D129" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C129" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="E129" s="2" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -3438,21 +3444,90 @@
         <v>122</v>
       </c>
       <c r="B130" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G130" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G131" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B132" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C130" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D130" s="2" t="s">
+      <c r="C132" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D132" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E130" s="2" t="s">
+      <c r="E132" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="F130" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G130" s="2" t="s">
+      <c r="F132" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G133" s="2" t="s">
         <v>24</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_026.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_026.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="139">
   <si>
     <t>Sezione</t>
   </si>
@@ -276,6 +276,36 @@
   </si>
   <si>
     <t>flagFirmatario</t>
+  </si>
+  <si>
+    <t>Provincia AIRE</t>
+  </si>
+  <si>
+    <t>idProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Provincia AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE</t>
+  </si>
+  <si>
+    <t>idComuneAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneAIRE</t>
+  </si>
+  <si>
+    <t>Trasmissione residenza estera</t>
+  </si>
+  <si>
+    <t>flagTrasmissioneResidenzaEstera</t>
   </si>
   <si>
     <t>Padre</t>
@@ -457,7 +487,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H133"/>
+  <dimension ref="A1:H147"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -467,7 +497,7 @@
     <col min="2" max="2" width="45.2734375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="31.90234375" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="25.734375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="30.5234375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="50.08203125" customWidth="true" bestFit="true"/>
   </cols>
@@ -1325,778 +1355,778 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B38" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="C38" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="E38" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="F38" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>90</v>
+        <v>43</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>44</v>
+        <v>90</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>45</v>
+        <v>91</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>90</v>
+        <v>43</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>46</v>
+        <v>92</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>47</v>
+        <v>93</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>90</v>
+        <v>43</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>48</v>
+        <v>94</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>90</v>
+        <v>43</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>50</v>
+        <v>96</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>51</v>
+        <v>97</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>90</v>
+        <v>43</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>24</v>
+        <v>100</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>24</v>
+        <v>100</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>24</v>
+        <v>100</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>24</v>
+        <v>100</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>24</v>
+        <v>100</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>24</v>
+        <v>100</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E67" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B67" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="F67" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>24</v>
+        <v>100</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>57</v>
+        <v>93</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>24</v>
+        <v>100</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>24</v>
+        <v>100</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>61</v>
+        <v>97</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>24</v>
+        <v>100</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>17</v>
@@ -2107,19 +2137,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2130,19 +2160,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2153,19 +2183,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2176,19 +2206,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2199,19 +2229,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2222,22 +2252,22 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>24</v>
@@ -2245,22 +2275,22 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>24</v>
@@ -2268,22 +2298,22 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
         <v>24</v>
@@ -2291,19 +2321,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>17</v>
@@ -2314,22 +2344,22 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G81" s="2" t="s">
         <v>24</v>
@@ -2337,19 +2367,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2360,19 +2390,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2383,1151 +2413,1473 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>98</v>
+        <v>71</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>99</v>
+        <v>72</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>102</v>
+        <v>75</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>103</v>
+        <v>76</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>105</v>
+        <v>78</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>106</v>
+        <v>79</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>107</v>
+        <v>80</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>23</v>
+        <v>81</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>26</v>
+        <v>85</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>116</v>
+        <v>91</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="B101" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D101" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C101" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>118</v>
-      </c>
       <c r="E101" s="2" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>23</v>
+        <v>114</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B104" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B104" s="2" t="s">
-        <v>110</v>
-      </c>
       <c r="C104" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>114</v>
+        <v>26</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>94</v>
+        <v>123</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>96</v>
+        <v>124</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>121</v>
+        <v>12</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>97</v>
+        <v>125</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>98</v>
+        <v>126</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>121</v>
+        <v>12</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>121</v>
+        <v>14</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>121</v>
+        <v>14</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>121</v>
+        <v>14</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>121</v>
+        <v>14</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>23</v>
+        <v>114</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>121</v>
+        <v>14</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>121</v>
+        <v>14</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>121</v>
+        <v>14</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E117" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B117" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E117" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="F117" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>121</v>
+        <v>14</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>114</v>
+        <v>26</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>121</v>
+        <v>14</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>121</v>
+        <v>14</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>94</v>
+        <v>123</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>96</v>
+        <v>124</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>97</v>
+        <v>125</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>98</v>
+        <v>126</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>24</v>
+        <v>131</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>24</v>
+        <v>131</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>24</v>
+        <v>131</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>24</v>
+        <v>131</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>23</v>
+        <v>114</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>24</v>
+        <v>131</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>24</v>
+        <v>131</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>24</v>
+        <v>131</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>24</v>
+        <v>131</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>114</v>
+        <v>26</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>24</v>
+        <v>131</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E131" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B131" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C131" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D131" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E131" s="2" t="s">
-        <v>116</v>
-      </c>
       <c r="F131" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>24</v>
+        <v>131</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E132" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B132" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C132" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D132" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E132" s="2" t="s">
-        <v>126</v>
-      </c>
       <c r="F132" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>24</v>
+        <v>131</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G133" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F134" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G134" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G135" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G136" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G137" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G138" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G139" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G140" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G141" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G142" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G143" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E144" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B133" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C133" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D133" s="2" t="s">
+      <c r="F144" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G144" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F145" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G145" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D146" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E133" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="F133" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G133" s="2" t="s">
+      <c r="E146" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G146" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G147" s="2" t="s">
         <v>24</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_026.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_026.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1050" uniqueCount="141">
   <si>
     <t>Sezione</t>
   </si>
@@ -152,6 +152,12 @@
     <t>nome</t>
   </si>
   <si>
+    <t>Identificativo unico nazionale</t>
+  </si>
+  <si>
+    <t>idANPR</t>
+  </si>
+  <si>
     <t>Sesso</t>
   </si>
   <si>
@@ -206,13 +212,13 @@
     <t>localitaEsteraNascita</t>
   </si>
   <si>
-    <t>Nazionalita</t>
+    <t>Nazionalità</t>
   </si>
   <si>
     <t>idNazionalita</t>
   </si>
   <si>
-    <t>Nazionalita - Descrizione</t>
+    <t>Nazionalità - Descrizione</t>
   </si>
   <si>
     <t>nazionalita</t>
@@ -487,7 +493,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H147"/>
+  <dimension ref="A1:H150"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -878,7 +884,7 @@
         <v>46</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>41</v>
@@ -970,7 +976,7 @@
         <v>54</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>41</v>
@@ -1002,7 +1008,7 @@
         <v>57</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>43</v>
@@ -1025,7 +1031,7 @@
         <v>59</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>43</v>
@@ -1048,7 +1054,7 @@
         <v>61</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>43</v>
@@ -1085,7 +1091,7 @@
         <v>64</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>41</v>
@@ -1094,7 +1100,7 @@
         <v>65</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>43</v>
@@ -1177,7 +1183,7 @@
         <v>72</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>41</v>
@@ -1209,7 +1215,7 @@
         <v>75</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>43</v>
@@ -1232,7 +1238,7 @@
         <v>77</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>43</v>
@@ -1255,7 +1261,7 @@
         <v>79</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>43</v>
@@ -1292,7 +1298,7 @@
         <v>82</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>41</v>
@@ -1301,7 +1307,7 @@
         <v>83</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>43</v>
@@ -1361,7 +1367,7 @@
         <v>88</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>41</v>
@@ -1393,7 +1399,7 @@
         <v>91</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>43</v>
@@ -1416,7 +1422,7 @@
         <v>93</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G40" s="2" t="s">
         <v>43</v>
@@ -1439,7 +1445,7 @@
         <v>95</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>43</v>
@@ -1470,712 +1476,712 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B43" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>100</v>
+        <v>43</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D71" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B71" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="E71" s="2" t="s">
-        <v>42</v>
+        <v>97</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>24</v>
+        <v>102</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D72" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B72" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D72" s="2" t="s">
+      <c r="E72" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G72" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F72" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G72" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>24</v>
@@ -2183,19 +2189,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2206,19 +2212,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2229,19 +2235,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2252,19 +2258,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2275,22 +2281,22 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>24</v>
@@ -2298,19 +2304,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2321,22 +2327,22 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
         <v>24</v>
@@ -2344,19 +2350,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>17</v>
@@ -2367,19 +2373,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2390,22 +2396,22 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G83" s="2" t="s">
         <v>24</v>
@@ -2413,22 +2419,22 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G84" s="2" t="s">
         <v>24</v>
@@ -2436,19 +2442,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2459,19 +2465,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2482,22 +2488,22 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
         <v>24</v>
@@ -2505,19 +2511,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2528,22 +2534,22 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
         <v>24</v>
@@ -2551,19 +2557,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>17</v>
@@ -2574,19 +2580,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2597,22 +2603,22 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G92" s="2" t="s">
         <v>24</v>
@@ -2620,22 +2626,22 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G93" s="2" t="s">
         <v>24</v>
@@ -2643,19 +2649,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2666,22 +2672,22 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
         <v>24</v>
@@ -2689,19 +2695,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2712,22 +2718,22 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>24</v>
@@ -2738,22 +2744,22 @@
         <v>103</v>
       </c>
       <c r="B98" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D98" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C98" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="E98" s="2" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="99">
@@ -2761,22 +2767,22 @@
         <v>103</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="100">
@@ -2784,39 +2790,39 @@
         <v>103</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2827,19 +2833,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2850,19 +2856,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2873,19 +2879,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>23</v>
+        <v>114</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2896,19 +2902,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2919,19 +2925,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>26</v>
+        <v>118</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -2942,22 +2948,22 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>122</v>
+        <v>23</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
         <v>12</v>
@@ -2965,22 +2971,22 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
         <v>12</v>
@@ -2988,19 +2994,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>126</v>
+        <v>26</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3011,88 +3017,88 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="B111" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D111" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C111" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="E111" s="2" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B112" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B112" s="2" t="s">
-        <v>109</v>
-      </c>
       <c r="C112" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D112" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E112" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="E112" s="2" t="s">
-        <v>110</v>
-      </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3103,19 +3109,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3126,19 +3132,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3149,19 +3155,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>23</v>
+        <v>114</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3172,19 +3178,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3195,19 +3201,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>26</v>
+        <v>118</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3218,22 +3224,22 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>122</v>
+        <v>23</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
         <v>14</v>
@@ -3241,22 +3247,22 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
         <v>14</v>
@@ -3264,19 +3270,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>126</v>
+        <v>26</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3290,7 +3296,7 @@
         <v>129</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
@@ -3299,13 +3305,13 @@
         <v>130</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>131</v>
+        <v>14</v>
       </c>
     </row>
     <row r="123">
@@ -3313,22 +3319,22 @@
         <v>129</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
         <v>130</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>131</v>
+        <v>14</v>
       </c>
     </row>
     <row r="124">
@@ -3336,7 +3342,7 @@
         <v>129</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>18</v>
@@ -3345,306 +3351,306 @@
         <v>130</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>131</v>
+        <v>14</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>23</v>
+        <v>114</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>26</v>
+        <v>118</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>122</v>
+        <v>23</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>126</v>
+        <v>26</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D134" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B134" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C134" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D134" s="2" t="s">
+      <c r="E134" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F134" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G134" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="E134" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="F134" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G134" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D135" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B135" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C135" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D135" s="2" t="s">
+      <c r="E135" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G135" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="E135" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F135" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G135" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D136" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B136" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C136" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D136" s="2" t="s">
+      <c r="E136" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G136" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="E136" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F136" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G136" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
@@ -3655,19 +3661,19 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
@@ -3678,19 +3684,19 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
@@ -3701,19 +3707,19 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>23</v>
+        <v>114</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
@@ -3724,19 +3730,19 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
@@ -3747,19 +3753,19 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>26</v>
+        <v>118</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
@@ -3770,19 +3776,19 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>122</v>
+        <v>23</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
@@ -3793,19 +3799,19 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
@@ -3816,19 +3822,19 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>126</v>
+        <v>26</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
@@ -3842,16 +3848,16 @@
         <v>134</v>
       </c>
       <c r="B146" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D146" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C146" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D146" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="E146" s="2" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
@@ -3865,21 +3871,90 @@
         <v>134</v>
       </c>
       <c r="B147" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G147" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G148" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B149" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C147" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D147" s="2" t="s">
+      <c r="C149" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D149" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E147" s="2" t="s">
+      <c r="E149" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="F147" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G147" s="2" t="s">
+      <c r="F149" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G149" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G150" s="2" t="s">
         <v>24</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_026.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_026.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1050" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1071" uniqueCount="143">
   <si>
     <t>Sezione</t>
   </si>
@@ -222,6 +222,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Residenza non nota</t>
+  </si>
+  <si>
+    <t>flagIrreperibile</t>
   </si>
   <si>
     <t>Stato di residenza</t>
@@ -493,7 +499,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H150"/>
+  <dimension ref="A1:H153"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1160,7 +1166,7 @@
         <v>70</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>41</v>
@@ -1169,7 +1175,7 @@
         <v>71</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>43</v>
@@ -1183,7 +1189,7 @@
         <v>72</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>41</v>
@@ -1215,7 +1221,7 @@
         <v>75</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>43</v>
@@ -1238,7 +1244,7 @@
         <v>77</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>43</v>
@@ -1261,7 +1267,7 @@
         <v>79</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>43</v>
@@ -1284,7 +1290,7 @@
         <v>81</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>43</v>
@@ -1321,7 +1327,7 @@
         <v>84</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>41</v>
@@ -1330,7 +1336,7 @@
         <v>85</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>43</v>
@@ -1390,7 +1396,7 @@
         <v>90</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>41</v>
@@ -1422,7 +1428,7 @@
         <v>93</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
         <v>43</v>
@@ -1445,7 +1451,7 @@
         <v>95</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>43</v>
@@ -1468,7 +1474,7 @@
         <v>97</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
         <v>43</v>
@@ -1499,735 +1505,735 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="E44" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="F44" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>102</v>
+        <v>43</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D73" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B73" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D73" s="2" t="s">
+      <c r="E73" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G73" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F73" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G73" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D74" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B74" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D74" s="2" t="s">
+      <c r="E74" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G74" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F74" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G74" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>24</v>
@@ -2235,19 +2241,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2258,19 +2264,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2281,19 +2287,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2304,19 +2310,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2327,19 +2333,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2350,22 +2356,22 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
         <v>24</v>
@@ -2373,19 +2379,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2396,19 +2402,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>17</v>
@@ -2419,22 +2425,22 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
         <v>24</v>
@@ -2442,22 +2448,22 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G85" s="2" t="s">
         <v>24</v>
@@ -2465,22 +2471,22 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G86" s="2" t="s">
         <v>24</v>
@@ -2488,19 +2494,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2511,19 +2517,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2534,22 +2540,22 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G89" s="2" t="s">
         <v>24</v>
@@ -2557,22 +2563,22 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
         <v>24</v>
@@ -2580,22 +2586,22 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G91" s="2" t="s">
         <v>24</v>
@@ -2603,22 +2609,22 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
         <v>24</v>
@@ -2626,19 +2632,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>17</v>
@@ -2649,19 +2655,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2672,22 +2678,22 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G95" s="2" t="s">
         <v>24</v>
@@ -2695,22 +2701,22 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>24</v>
@@ -2718,19 +2724,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2741,22 +2747,22 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>24</v>
@@ -2764,19 +2770,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2787,22 +2793,22 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
         <v>24</v>
@@ -2813,22 +2819,22 @@
         <v>105</v>
       </c>
       <c r="B101" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D101" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C101" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="E101" s="2" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="102">
@@ -2836,22 +2842,22 @@
         <v>105</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="103">
@@ -2859,39 +2865,39 @@
         <v>105</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2902,19 +2908,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2925,19 +2931,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -2948,19 +2954,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>23</v>
+        <v>116</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -2971,19 +2977,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -2994,19 +3000,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>26</v>
+        <v>120</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3017,22 +3023,22 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>124</v>
+        <v>23</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
         <v>12</v>
@@ -3040,22 +3046,22 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
         <v>12</v>
@@ -3063,19 +3069,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>128</v>
+        <v>26</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3086,88 +3092,88 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="B114" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D114" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C114" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>130</v>
-      </c>
       <c r="E114" s="2" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B115" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B115" s="2" t="s">
-        <v>111</v>
-      </c>
       <c r="C115" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D115" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E115" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="E115" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3178,19 +3184,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3201,19 +3207,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3224,19 +3230,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>23</v>
+        <v>116</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3247,19 +3253,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3270,19 +3276,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>26</v>
+        <v>120</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3293,22 +3299,22 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>124</v>
+        <v>23</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
         <v>14</v>
@@ -3316,22 +3322,22 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
         <v>14</v>
@@ -3339,19 +3345,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>128</v>
+        <v>26</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3365,7 +3371,7 @@
         <v>131</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>9</v>
@@ -3374,13 +3380,13 @@
         <v>132</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>133</v>
+        <v>14</v>
       </c>
     </row>
     <row r="126">
@@ -3388,22 +3394,22 @@
         <v>131</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
         <v>132</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>133</v>
+        <v>14</v>
       </c>
     </row>
     <row r="127">
@@ -3411,7 +3417,7 @@
         <v>131</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>18</v>
@@ -3420,306 +3426,306 @@
         <v>132</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>133</v>
+        <v>14</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>23</v>
+        <v>116</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>26</v>
+        <v>120</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>124</v>
+        <v>23</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>128</v>
+        <v>26</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D137" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B137" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C137" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D137" s="2" t="s">
+      <c r="E137" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G137" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="E137" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F137" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G137" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D138" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B138" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C138" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D138" s="2" t="s">
+      <c r="E138" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G138" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="E138" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F138" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G138" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D139" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B139" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C139" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D139" s="2" t="s">
+      <c r="E139" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G139" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="E139" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="F139" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G139" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
@@ -3730,19 +3736,19 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
@@ -3753,19 +3759,19 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
@@ -3776,19 +3782,19 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>23</v>
+        <v>116</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
@@ -3799,19 +3805,19 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
@@ -3822,19 +3828,19 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>26</v>
+        <v>120</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
@@ -3845,19 +3851,19 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>124</v>
+        <v>23</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
@@ -3868,19 +3874,19 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
@@ -3891,19 +3897,19 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>128</v>
+        <v>26</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
@@ -3917,16 +3923,16 @@
         <v>136</v>
       </c>
       <c r="B149" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D149" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C149" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D149" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="E149" s="2" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
@@ -3940,21 +3946,90 @@
         <v>136</v>
       </c>
       <c r="B150" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G150" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F151" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G151" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B152" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C150" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D150" s="2" t="s">
+      <c r="C152" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D152" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E150" s="2" t="s">
+      <c r="E152" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="F150" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G150" s="2" t="s">
+      <c r="F152" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G152" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G153" s="2" t="s">
         <v>24</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_026.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_026.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1071" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1092" uniqueCount="145">
   <si>
     <t>Sezione</t>
   </si>
@@ -222,6 +222,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Comprensione</t>
+  </si>
+  <si>
+    <t>tipoImpedimento</t>
   </si>
   <si>
     <t>Residenza non nota</t>
@@ -499,7 +505,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H153"/>
+  <dimension ref="A1:H156"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1198,7 +1204,7 @@
         <v>73</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>43</v>
@@ -1221,7 +1227,7 @@
         <v>75</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>43</v>
@@ -1244,7 +1250,7 @@
         <v>77</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>43</v>
@@ -1267,7 +1273,7 @@
         <v>79</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>43</v>
@@ -1290,7 +1296,7 @@
         <v>81</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>43</v>
@@ -1313,7 +1319,7 @@
         <v>83</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>43</v>
@@ -1350,7 +1356,7 @@
         <v>86</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>41</v>
@@ -1359,7 +1365,7 @@
         <v>87</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>43</v>
@@ -1419,7 +1425,7 @@
         <v>92</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>41</v>
@@ -1451,7 +1457,7 @@
         <v>95</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>43</v>
@@ -1474,7 +1480,7 @@
         <v>97</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G42" s="2" t="s">
         <v>43</v>
@@ -1497,7 +1503,7 @@
         <v>99</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
         <v>43</v>
@@ -1528,758 +1534,758 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="C45" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="E45" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="F45" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>104</v>
+        <v>43</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D75" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B75" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D75" s="2" t="s">
+      <c r="E75" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G75" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F75" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G75" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D76" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B76" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D76" s="2" t="s">
+      <c r="E76" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G76" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F76" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G76" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>24</v>
@@ -2287,19 +2293,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2310,19 +2316,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2333,19 +2339,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2356,19 +2362,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2379,19 +2385,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2402,22 +2408,22 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
         <v>24</v>
@@ -2425,19 +2431,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2448,19 +2454,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>17</v>
@@ -2471,22 +2477,22 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
         <v>24</v>
@@ -2494,22 +2500,22 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G87" s="2" t="s">
         <v>24</v>
@@ -2517,22 +2523,22 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G88" s="2" t="s">
         <v>24</v>
@@ -2540,22 +2546,22 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
         <v>24</v>
@@ -2563,19 +2569,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2586,19 +2592,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>17</v>
@@ -2609,22 +2615,22 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G92" s="2" t="s">
         <v>24</v>
@@ -2632,22 +2638,22 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
         <v>24</v>
@@ -2655,22 +2661,22 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>24</v>
@@ -2678,22 +2684,22 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
         <v>24</v>
@@ -2701,19 +2707,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>17</v>
@@ -2724,19 +2730,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2747,22 +2753,22 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>24</v>
@@ -2770,22 +2776,22 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G99" s="2" t="s">
         <v>24</v>
@@ -2793,19 +2799,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2816,22 +2822,22 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>24</v>
@@ -2839,19 +2845,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2862,22 +2868,22 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
         <v>24</v>
@@ -2888,22 +2894,22 @@
         <v>107</v>
       </c>
       <c r="B104" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D104" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C104" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>109</v>
-      </c>
       <c r="E104" s="2" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="105">
@@ -2911,22 +2917,22 @@
         <v>107</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="106">
@@ -2934,39 +2940,39 @@
         <v>107</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -2977,19 +2983,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3000,19 +3006,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3023,19 +3029,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>23</v>
+        <v>118</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3046,19 +3052,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3069,19 +3075,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>26</v>
+        <v>122</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3092,22 +3098,22 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>126</v>
+        <v>23</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
         <v>12</v>
@@ -3115,22 +3121,22 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
         <v>12</v>
@@ -3138,19 +3144,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>130</v>
+        <v>26</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3161,88 +3167,88 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="B117" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D117" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C117" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>132</v>
-      </c>
       <c r="E117" s="2" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B118" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B118" s="2" t="s">
-        <v>113</v>
-      </c>
       <c r="C118" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D118" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E118" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="E118" s="2" t="s">
-        <v>114</v>
-      </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3253,19 +3259,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3276,19 +3282,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3299,19 +3305,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>23</v>
+        <v>118</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3322,19 +3328,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3345,19 +3351,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>26</v>
+        <v>122</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3368,22 +3374,22 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>126</v>
+        <v>23</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
         <v>14</v>
@@ -3391,22 +3397,22 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
         <v>14</v>
@@ -3414,19 +3420,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>130</v>
+        <v>26</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3440,7 +3446,7 @@
         <v>133</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
@@ -3449,13 +3455,13 @@
         <v>134</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>135</v>
+        <v>14</v>
       </c>
     </row>
     <row r="129">
@@ -3463,22 +3469,22 @@
         <v>133</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
         <v>134</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>135</v>
+        <v>14</v>
       </c>
     </row>
     <row r="130">
@@ -3486,7 +3492,7 @@
         <v>133</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>18</v>
@@ -3495,306 +3501,306 @@
         <v>134</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>135</v>
+        <v>14</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>23</v>
+        <v>118</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>26</v>
+        <v>122</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>126</v>
+        <v>23</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>130</v>
+        <v>26</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D140" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B140" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C140" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D140" s="2" t="s">
+      <c r="E140" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G140" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="E140" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F140" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G140" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D141" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B141" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C141" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D141" s="2" t="s">
+      <c r="E141" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G141" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="E141" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="F141" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G141" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D142" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B142" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C142" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D142" s="2" t="s">
+      <c r="E142" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G142" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="E142" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="F142" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G142" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
@@ -3805,19 +3811,19 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
@@ -3828,19 +3834,19 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
@@ -3851,19 +3857,19 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>23</v>
+        <v>118</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
@@ -3874,19 +3880,19 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
@@ -3897,19 +3903,19 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>26</v>
+        <v>122</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
@@ -3920,19 +3926,19 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>126</v>
+        <v>23</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
@@ -3943,19 +3949,19 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
@@ -3966,19 +3972,19 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>130</v>
+        <v>26</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
@@ -3992,16 +3998,16 @@
         <v>138</v>
       </c>
       <c r="B152" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D152" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C152" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D152" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="E152" s="2" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
@@ -4015,21 +4021,90 @@
         <v>138</v>
       </c>
       <c r="B153" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G153" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F154" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G154" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B155" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C153" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D153" s="2" t="s">
+      <c r="C155" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D155" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E153" s="2" t="s">
+      <c r="E155" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="F153" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G153" s="2" t="s">
+      <c r="F155" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G155" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F156" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G156" s="2" t="s">
         <v>24</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_026.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_026.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1092" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1120" uniqueCount="147">
   <si>
     <t>Sezione</t>
   </si>
@@ -405,6 +405,12 @@
   </si>
   <si>
     <t>serie</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>volume</t>
   </si>
   <si>
     <t>Tipo registro</t>
@@ -505,7 +511,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H156"/>
+  <dimension ref="A1:H160"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -3219,7 +3225,7 @@
         <v>131</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
         <v>111</v>
@@ -3228,7 +3234,7 @@
         <v>132</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G118" s="2" t="s">
         <v>12</v>
@@ -3236,42 +3242,42 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B119" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B119" s="2" t="s">
-        <v>110</v>
-      </c>
       <c r="C119" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D119" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E119" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="E119" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3282,19 +3288,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3305,19 +3311,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3328,19 +3334,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3351,19 +3357,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3374,19 +3380,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>23</v>
+        <v>122</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3397,19 +3403,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>125</v>
+        <v>23</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3420,19 +3426,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>26</v>
+        <v>125</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3443,22 +3449,22 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>128</v>
+        <v>26</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
         <v>14</v>
@@ -3466,19 +3472,19 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>17</v>
@@ -3489,22 +3495,22 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G130" s="2" t="s">
         <v>14</v>
@@ -3515,7 +3521,7 @@
         <v>135</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>110</v>
+        <v>131</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>9</v>
@@ -3524,13 +3530,13 @@
         <v>136</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>137</v>
+        <v>14</v>
       </c>
     </row>
     <row r="132">
@@ -3538,7 +3544,7 @@
         <v>135</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>18</v>
@@ -3547,329 +3553,329 @@
         <v>136</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>137</v>
+        <v>14</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>23</v>
+        <v>120</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>130</v>
+        <v>26</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D143" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B143" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C143" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D143" s="2" t="s">
+      <c r="E143" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G143" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="E143" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="F143" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G143" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D144" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B144" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C144" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D144" s="2" t="s">
+      <c r="E144" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G144" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="E144" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="F144" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G144" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D145" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B145" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C145" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D145" s="2" t="s">
+      <c r="E145" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F145" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G145" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="E145" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="F145" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G145" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
@@ -3880,19 +3886,19 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
@@ -3903,19 +3909,19 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
@@ -3926,19 +3932,19 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>23</v>
+        <v>118</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
@@ -3949,19 +3955,19 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
@@ -3972,19 +3978,19 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>26</v>
+        <v>122</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
@@ -3995,19 +4001,19 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>128</v>
+        <v>23</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
@@ -4018,19 +4024,19 @@
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
@@ -4041,19 +4047,19 @@
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>132</v>
+        <v>26</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
@@ -4067,16 +4073,16 @@
         <v>140</v>
       </c>
       <c r="B155" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D155" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C155" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D155" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="E155" s="2" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
@@ -4090,21 +4096,113 @@
         <v>140</v>
       </c>
       <c r="B156" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F156" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G156" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F157" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G157" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F158" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G158" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B159" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C156" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D156" s="2" t="s">
+      <c r="C159" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D159" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E156" s="2" t="s">
+      <c r="E159" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="F156" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G156" s="2" t="s">
+      <c r="F159" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G159" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F160" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G160" s="2" t="s">
         <v>24</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_026.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_026.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1120" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1162" uniqueCount="151">
   <si>
     <t>Sezione</t>
   </si>
@@ -162,6 +162,18 @@
   </si>
   <si>
     <t>sesso</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita</t>
+  </si>
+  <si>
+    <t>idFormatodata</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>formatodata</t>
   </si>
   <si>
     <t>Data nascita</t>
@@ -511,7 +523,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H160"/>
+  <dimension ref="A1:H166"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -948,7 +960,7 @@
         <v>50</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>41</v>
@@ -971,7 +983,7 @@
         <v>52</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>41</v>
@@ -980,7 +992,7 @@
         <v>53</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>43</v>
@@ -1017,7 +1029,7 @@
         <v>56</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>41</v>
@@ -1040,7 +1052,7 @@
         <v>58</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>41</v>
@@ -1049,7 +1061,7 @@
         <v>59</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>43</v>
@@ -1118,7 +1130,7 @@
         <v>65</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>43</v>
@@ -1132,7 +1144,7 @@
         <v>66</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>41</v>
@@ -1141,7 +1153,7 @@
         <v>67</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>43</v>
@@ -1155,7 +1167,7 @@
         <v>68</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>41</v>
@@ -1164,7 +1176,7 @@
         <v>69</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>43</v>
@@ -1178,7 +1190,7 @@
         <v>70</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>41</v>
@@ -1187,7 +1199,7 @@
         <v>71</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>43</v>
@@ -1201,7 +1213,7 @@
         <v>72</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>41</v>
@@ -1210,7 +1222,7 @@
         <v>73</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>43</v>
@@ -1233,7 +1245,7 @@
         <v>75</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>43</v>
@@ -1371,7 +1383,7 @@
         <v>87</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>43</v>
@@ -1385,7 +1397,7 @@
         <v>88</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>41</v>
@@ -1394,7 +1406,7 @@
         <v>89</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>43</v>
@@ -1408,7 +1420,7 @@
         <v>90</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>41</v>
@@ -1417,7 +1429,7 @@
         <v>91</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>43</v>
@@ -1454,7 +1466,7 @@
         <v>94</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>41</v>
@@ -1477,7 +1489,7 @@
         <v>96</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>41</v>
@@ -1486,7 +1498,7 @@
         <v>97</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
         <v>43</v>
@@ -1555,7 +1567,7 @@
         <v>103</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>43</v>
@@ -1563,827 +1575,827 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="C46" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="E46" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="F46" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>106</v>
+        <v>43</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>104</v>
+        <v>39</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>44</v>
+        <v>106</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>105</v>
+        <v>41</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>45</v>
+        <v>107</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>106</v>
+        <v>43</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>42</v>
+        <v>101</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>24</v>
+        <v>110</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>44</v>
+        <v>102</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>24</v>
+        <v>110</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>46</v>
+        <v>104</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>47</v>
+        <v>105</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>24</v>
+        <v>110</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E80" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B80" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="F80" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>24</v>
+        <v>110</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G81" s="2" t="s">
         <v>24</v>
@@ -2391,19 +2403,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2414,19 +2426,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2437,19 +2449,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2460,22 +2472,22 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
         <v>24</v>
@@ -2483,22 +2495,22 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G86" s="2" t="s">
         <v>24</v>
@@ -2506,22 +2518,22 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
         <v>24</v>
@@ -2529,22 +2541,22 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
         <v>24</v>
@@ -2552,19 +2564,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2575,19 +2587,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2598,19 +2610,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>17</v>
@@ -2621,22 +2633,22 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
         <v>24</v>
@@ -2644,22 +2656,22 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G93" s="2" t="s">
         <v>24</v>
@@ -2667,19 +2679,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>17</v>
@@ -2690,19 +2702,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2713,22 +2725,22 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>24</v>
@@ -2736,22 +2748,22 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>24</v>
@@ -2759,19 +2771,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>17</v>
@@ -2782,22 +2794,22 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
         <v>24</v>
@@ -2805,22 +2817,22 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G100" s="2" t="s">
         <v>24</v>
@@ -2828,19 +2840,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2851,22 +2863,22 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G102" s="2" t="s">
         <v>24</v>
@@ -2874,19 +2886,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2897,19 +2909,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>17</v>
@@ -2920,22 +2932,22 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G105" s="2" t="s">
         <v>24</v>
@@ -2943,22 +2955,22 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
         <v>24</v>
@@ -2966,157 +2978,157 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>23</v>
+        <v>116</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3127,19 +3139,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3150,19 +3162,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>26</v>
+        <v>120</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3173,22 +3185,22 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
         <v>12</v>
@@ -3196,22 +3208,22 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
         <v>12</v>
@@ -3219,22 +3231,22 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
         <v>12</v>
@@ -3242,19 +3254,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>134</v>
+        <v>23</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3265,157 +3277,157 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>114</v>
+        <v>26</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="B122" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D122" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C122" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>136</v>
-      </c>
       <c r="E122" s="2" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B124" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B124" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="C124" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E124" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="E124" s="2" t="s">
-        <v>120</v>
-      </c>
       <c r="F124" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>23</v>
+        <v>116</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3426,19 +3438,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3449,19 +3461,19 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>26</v>
+        <v>120</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
@@ -3472,22 +3484,22 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
         <v>14</v>
@@ -3495,22 +3507,22 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
         <v>14</v>
@@ -3518,22 +3530,22 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
         <v>14</v>
@@ -3541,19 +3553,19 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>134</v>
+        <v>23</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
@@ -3564,456 +3576,456 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>139</v>
+        <v>14</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>114</v>
+        <v>26</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>139</v>
+        <v>14</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>139</v>
+        <v>14</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>139</v>
+        <v>14</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>139</v>
+        <v>14</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B138" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B138" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="C138" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D138" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E138" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="E138" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>139</v>
+        <v>14</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>23</v>
+        <v>116</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>26</v>
+        <v>120</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>134</v>
+        <v>23</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>24</v>
+        <v>143</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>114</v>
+        <v>26</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>24</v>
+        <v>143</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>24</v>
+        <v>143</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>24</v>
+        <v>143</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>24</v>
+        <v>143</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>24</v>
+        <v>143</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>23</v>
+        <v>116</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
@@ -4024,19 +4036,19 @@
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
@@ -4047,19 +4059,19 @@
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>26</v>
+        <v>120</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
@@ -4070,19 +4082,19 @@
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
@@ -4093,19 +4105,19 @@
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
@@ -4116,19 +4128,19 @@
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
@@ -4139,19 +4151,19 @@
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>134</v>
+        <v>23</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
@@ -4162,19 +4174,19 @@
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>33</v>
+        <v>145</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
@@ -4185,24 +4197,162 @@
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B160" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D160" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C160" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D160" s="2" t="s">
+      <c r="E160" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F160" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G160" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E161" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F161" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G161" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E162" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F162" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G162" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E163" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F163" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G163" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E164" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F164" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G164" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D165" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E160" s="2" t="s">
+      <c r="E165" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F165" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G165" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="F160" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G160" s="2" t="s">
+      <c r="B166" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E166" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F166" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G166" s="2" t="s">
         <v>24</v>
       </c>
     </row>
